--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -24,25 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
-  <si>
-    <t>Création du journal de travail</t>
-  </si>
-  <si>
-    <t>Khan academy</t>
-  </si>
-  <si>
-    <t>Kahn</t>
-  </si>
-  <si>
-    <t>Site exo</t>
-  </si>
-  <si>
-    <t>Exo fonction</t>
-  </si>
-  <si>
-    <t>Moodle</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Descritpion</t>
   </si>
@@ -62,46 +44,10 @@
     <t>Sources</t>
   </si>
   <si>
-    <t>fond ecran</t>
+    <t>Lancement du projet et commencement de l'analyse</t>
   </si>
   <si>
-    <t>bitfield</t>
-  </si>
-  <si>
-    <t>Cdc bataille navale</t>
-  </si>
-  <si>
-    <t>LVT</t>
-  </si>
-  <si>
-    <t>Crepe</t>
-  </si>
-  <si>
-    <t>Battaile navale</t>
-  </si>
-  <si>
-    <t>Rien</t>
-  </si>
-  <si>
-    <t>création et mise en marche PS</t>
-  </si>
-  <si>
-    <t>Excel/LVT</t>
-  </si>
-  <si>
-    <t>Commun classe</t>
-  </si>
-  <si>
-    <t>inventaire</t>
-  </si>
-  <si>
-    <t>moodle</t>
-  </si>
-  <si>
-    <t>internet</t>
-  </si>
-  <si>
-    <t>Lancement du projet et commencement de l'analyse</t>
+    <t>achèvement des uses cases et scénarios</t>
   </si>
 </sst>
 </file>
@@ -503,13 +449,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" style="8" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
@@ -519,486 +465,255 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6">
-        <v>43866</v>
+        <v>44228</v>
       </c>
       <c r="C2" s="5">
-        <v>0.4909722222222222</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D2" s="5">
-        <v>0.50277777777777777</v>
+        <v>0.44097222222222227</v>
       </c>
       <c r="E2" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>1.1805555555555569E-2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>0.10763888888888895</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6">
-        <v>43867</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.56736111111111109</v>
+        <v>44230</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.44097222222222227</v>
       </c>
       <c r="D3" s="5">
-        <v>0.59930555555555554</v>
+        <v>0.51111111111111118</v>
       </c>
       <c r="E3" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>3.1944444444444442E-2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>2</v>
+        <v>7.0138888888888917E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>43867</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.61597222222222225</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.62847222222222221</v>
-      </c>
+      <c r="B4" s="6"/>
       <c r="E4" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>1.2499999999999956E-2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
-        <v>43867</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.6430555555555556</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.65972222222222221</v>
-      </c>
+      <c r="B5" s="6"/>
       <c r="E5" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>1.6666666666666607E-2</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6">
-        <v>43867</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.65972222222222221</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.66249999999999998</v>
-      </c>
+      <c r="B6" s="6"/>
       <c r="E6" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>2.7777777777777679E-3</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6">
-        <v>43867</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.66249999999999998</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.6743055555555556</v>
-      </c>
+      <c r="B7" s="6"/>
       <c r="E7" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>1.1805555555555625E-2</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6">
-        <v>43867</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.6777777777777777</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.7055555555555556</v>
-      </c>
+      <c r="B8" s="6"/>
       <c r="E8" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>2.7777777777777901E-2</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6">
-        <v>43868</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.38750000000000001</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.40069444444444446</v>
-      </c>
+      <c r="B9" s="6"/>
       <c r="E9" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>1.3194444444444453E-2</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="6">
-        <v>43868</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.48333333333333334</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.51180555555555551</v>
-      </c>
+      <c r="B10" s="6"/>
       <c r="E10" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>2.8472222222222177E-2</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="6">
-        <v>43868</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.5708333333333333</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.57986111111111105</v>
-      </c>
+      <c r="B11" s="6"/>
       <c r="E11" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>9.0277777777777457E-3</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="6">
-        <v>43868</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.5854166666666667</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.6166666666666667</v>
-      </c>
+      <c r="B12" s="6"/>
       <c r="E12" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="6">
-        <v>43868</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.6166666666666667</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.62638888888888888</v>
-      </c>
+      <c r="B13" s="6"/>
       <c r="E13" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>9.7222222222221877E-3</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="6">
-        <v>43871</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.56597222222222221</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.57430555555555551</v>
-      </c>
+      <c r="B14" s="6"/>
       <c r="E14" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>8.3333333333333037E-3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="6">
-        <v>43873</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.35069444444444442</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.38194444444444442</v>
-      </c>
+      <c r="B15" s="6"/>
       <c r="E15" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="6">
-        <v>43873</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.43402777777777773</v>
-      </c>
+      <c r="B16" s="6"/>
       <c r="E16" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>5.2083333333333315E-2</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="6">
-        <v>43873</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.44861111111111113</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0.46736111111111112</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
       <c r="E17" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>1.8749999999999989E-2</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="6">
-        <v>43873</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.4680555555555555</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.50694444444444442</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
       <c r="E18" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>3.8888888888888917E-2</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="6">
-        <v>44228</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0.44097222222222227</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E19" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0.10763888888888895</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="9">
-        <v>0.44097222222222227</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E20" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="E21" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="E22" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="E23" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="E24" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="E25" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="E26" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="E27" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="E28" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="E29" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="E30" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="E31" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="E32" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Descritpion</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>achèvement des uses cases et scénarios</t>
+  </si>
+  <si>
+    <t>Analyse</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,10 +523,21 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6">
+        <v>44232</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.51111111111111118</v>
+      </c>
       <c r="E4" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>5.8333333333333404E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Descritpion</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Analyse</t>
+  </si>
+  <si>
+    <t>Mise en forme sur images</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,10 +544,21 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6">
+        <v>44232</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.56458333333333333</v>
+      </c>
       <c r="E5" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Descritpion</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Mise en forme sur images</t>
+  </si>
+  <si>
+    <t>Create MCD, template view, json structure</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,10 +565,21 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6">
+        <v>44235</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.4465277777777778</v>
+      </c>
       <c r="E6" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>0.10902777777777783</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,10 +583,18 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
+      <c r="B7" s="6">
+        <v>44237</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E7" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>6.4583333333333326E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Descritpion</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Create MCD, template view, json structure</t>
+  </si>
+  <si>
+    <t>Documentation et amélioration de la page home</t>
+  </si>
+  <si>
+    <t>Creation de pages</t>
   </si>
 </sst>
 </file>
@@ -459,7 +465,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,6 +589,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="B7" s="6">
         <v>44237</v>
       </c>
@@ -598,10 +607,21 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+      <c r="A8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6">
+        <v>44239</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E8" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>6.3888888888888828E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin.FONTANA\Documents\GitHub\ProjetWeb\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben19\Documents\GitHub\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE9E887-52F3-4F52-87D1-56D9383AF335}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17670" windowHeight="8085"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Descritpion</t>
   </si>
@@ -63,12 +73,15 @@
   </si>
   <si>
     <t>Creation de pages</t>
+  </si>
+  <si>
+    <t>Rien car kenan n'a pas répondu donc j'ai bossé mais il a juste overwrite mon boulot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -183,17 +196,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:F100" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:F100" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F100" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="3" name="Descritpion" dataDxfId="5"/>
-    <tableColumn id="5" name="Date" dataDxfId="4"/>
-    <tableColumn id="6" name="Heure de début" dataDxfId="3"/>
-    <tableColumn id="7" name="Heure de fin" dataDxfId="2"/>
-    <tableColumn id="8" name="Temps" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Descritpion" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Heure de début" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Heure de fin" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Temps" dataDxfId="1">
       <calculatedColumnFormula>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Sources" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sources" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -461,11 +474,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,10 +638,21 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6">
+        <v>44241</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E9" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>2.7777777777777735E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben19\Documents\GitHub\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE9E887-52F3-4F52-87D1-56D9383AF335}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BBFD62-692F-4A15-9FC1-079019D66FD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Descritpion</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Rien car kenan n'a pas répondu donc j'ai bossé mais il a juste overwrite mon boulot</t>
+  </si>
+  <si>
+    <t>Fix du header et du footer de la home page</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,10 +659,21 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
+      <c r="A10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6">
+        <v>44241</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.66319444444444442</v>
+      </c>
       <c r="E10" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben19\Documents\GitHub\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin.FONTANA\Documents\GitHub\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BBFD62-692F-4A15-9FC1-079019D66FD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Descritpion</t>
   </si>
@@ -66,9 +65,6 @@
     <t>Mise en forme sur images</t>
   </si>
   <si>
-    <t>Create MCD, template view, json structure</t>
-  </si>
-  <si>
     <t>Documentation et amélioration de la page home</t>
   </si>
   <si>
@@ -79,12 +75,18 @@
   </si>
   <si>
     <t>Fix du header et du footer de la home page</t>
+  </si>
+  <si>
+    <t>Dossier de projet et Diagramme de gantt</t>
+  </si>
+  <si>
+    <t>Creation du MCD, template view, json structure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -199,17 +201,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:F100" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F100" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:F100" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F100"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Descritpion" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Heure de début" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Heure de fin" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Temps" dataDxfId="1">
+    <tableColumn id="3" name="Descritpion" dataDxfId="5"/>
+    <tableColumn id="5" name="Date" dataDxfId="4"/>
+    <tableColumn id="6" name="Heure de début" dataDxfId="3"/>
+    <tableColumn id="7" name="Heure de fin" dataDxfId="2"/>
+    <tableColumn id="8" name="Temps" dataDxfId="1">
       <calculatedColumnFormula>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sources" dataDxfId="0"/>
+    <tableColumn id="9" name="Sources" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -477,16 +479,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" style="8" customWidth="1"/>
+    <col min="1" max="1" width="75.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
@@ -588,7 +590,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6">
         <v>44235</v>
@@ -606,7 +608,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6">
         <v>44237</v>
@@ -624,7 +626,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="6">
         <v>44239</v>
@@ -642,7 +644,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="6">
         <v>44241</v>
@@ -660,7 +662,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="6">
         <v>44241</v>
@@ -677,10 +679,21 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6">
+        <v>44242</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.44027777777777777</v>
+      </c>
       <c r="E11" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>0.10694444444444445</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Descritpion</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Creation du MCD, template view, json structure</t>
+  </si>
+  <si>
+    <t>Ajouté la map</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,10 +700,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
+      <c r="A12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6">
+        <v>44244</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.51250000000000007</v>
+      </c>
       <c r="E12" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>6.1111111111111172E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Descritpion</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Ajouté la map</t>
+  </si>
+  <si>
+    <t>Dispotition de la map et rendu de l'analyse</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,10 +721,21 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
+      <c r="A13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="6">
+        <v>44246</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.51111111111111118</v>
+      </c>
       <c r="E13" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>6.7361111111111149E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -489,7 +489,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A14" sqref="A14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Descritpion</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Dispotition de la map et rendu de l'analyse</t>
+  </si>
+  <si>
+    <t>Ajout des images de home et ajout de la fonction de fullscreen si clic sur img</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,10 +742,21 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
+      <c r="A14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6">
+        <v>44258</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E14" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>6.1111111111111061E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Descritpion</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Ajout des images de home et ajout de la fonction de fullscreen si clic sur img</t>
+  </si>
+  <si>
+    <t>Travail sur la map…</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,10 +763,21 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
+      <c r="A15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6">
+        <v>44260</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E15" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>6.3888888888888828E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Descritpion</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Travail sur la map…</t>
+  </si>
+  <si>
+    <t>finition de la carte dans toutes les vues et commancement de la gestion d'erreur</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -166,11 +169,35 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -213,17 +240,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:F100" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:F101" totalsRowCount="1" headerRowDxfId="12">
+  <autoFilter ref="A1:F101"/>
   <tableColumns count="6">
-    <tableColumn id="3" name="Descritpion" dataDxfId="5"/>
-    <tableColumn id="5" name="Date" dataDxfId="4"/>
-    <tableColumn id="6" name="Heure de début" dataDxfId="3"/>
-    <tableColumn id="7" name="Heure de fin" dataDxfId="2"/>
-    <tableColumn id="8" name="Temps" dataDxfId="1">
+    <tableColumn id="3" name="Descritpion" dataDxfId="11" totalsRowDxfId="5"/>
+    <tableColumn id="5" name="Date" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="6" name="Heure de début" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="7" name="Heure de fin" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="8" name="Temps" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="1">
       <calculatedColumnFormula>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tableau2[Temps])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="Sources" dataDxfId="0"/>
+    <tableColumn id="9" name="Sources" dataDxfId="6" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -492,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -781,10 +809,21 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
+      <c r="A16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6">
+        <v>44263</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.4458333333333333</v>
+      </c>
       <c r="E16" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>9.583333333333327E-2</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -1306,10 +1345,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E101" s="10">
+        <f>SUM(Tableau2[Temps])</f>
+        <v>1.0201388888888889</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Descritpion</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>finition de la carte dans toutes les vues et commancement de la gestion d'erreur</t>
+  </si>
+  <si>
+    <t>fait l'error handler Basique et commencé  le double password check</t>
   </si>
 </sst>
 </file>
@@ -241,7 +244,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:F101" totalsRowCount="1" headerRowDxfId="12">
-  <autoFilter ref="A1:F101"/>
+  <autoFilter ref="A1:F100"/>
   <tableColumns count="6">
     <tableColumn id="3" name="Descritpion" dataDxfId="11" totalsRowDxfId="5"/>
     <tableColumn id="5" name="Date" dataDxfId="10" totalsRowDxfId="4"/>
@@ -523,7 +526,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,110 +829,121 @@
         <v>9.583333333333327E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="6">
+        <v>44265</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.51111111111111118</v>
+      </c>
       <c r="E17" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <v>6.1805555555555614E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="E18" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E19" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E20" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="E21" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="E22" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="E23" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="E24" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="E25" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="E26" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="E27" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="E28" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="E29" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="E30" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="E31" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="E32" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
@@ -1348,7 +1362,7 @@
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="10">
         <f>SUM(Tableau2[Temps])</f>
-        <v>1.0201388888888889</v>
+        <v>1.0819444444444446</v>
       </c>
     </row>
   </sheetData>

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Descritpion</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>fait l'error handler Basique et commencé  le double password check</t>
+  </si>
+  <si>
+    <t>Finalitaion du sprint 2(password) et préparation sprint 3</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,10 +851,21 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
+      <c r="A18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="6">
+        <v>44267</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.51250000000000007</v>
+      </c>
       <c r="E18" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>6.1805555555555614E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1362,7 +1376,7 @@
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="10">
         <f>SUM(Tableau2[Temps])</f>
-        <v>1.0819444444444446</v>
+        <v>1.1437500000000003</v>
       </c>
     </row>
   </sheetData>

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin.FONTANA\Documents\GitHub\ProjetWeb\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben19\Documents\GitHub\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4AF2C9-579C-4F2E-B8C9-324195FF4F81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Descritpion</t>
   </si>
@@ -102,12 +103,15 @@
   </si>
   <si>
     <t>Finalitaion du sprint 2(password) et préparation sprint 3</t>
+  </si>
+  <si>
+    <t>finalisation du check de password et finalisation du sprint 2 commencement du sprint 3 avec du bug fixing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -246,18 +250,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:F101" totalsRowCount="1" headerRowDxfId="12">
-  <autoFilter ref="A1:F100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:F101" totalsRowCount="1" headerRowDxfId="12">
+  <autoFilter ref="A1:F100" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="3" name="Descritpion" dataDxfId="11" totalsRowDxfId="5"/>
-    <tableColumn id="5" name="Date" dataDxfId="10" totalsRowDxfId="4"/>
-    <tableColumn id="6" name="Heure de début" dataDxfId="9" totalsRowDxfId="3"/>
-    <tableColumn id="7" name="Heure de fin" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="8" name="Temps" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Descritpion" dataDxfId="11" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Heure de début" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Heure de fin" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Temps" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="1">
       <calculatedColumnFormula>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Tableau2[Temps])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="Sources" dataDxfId="6" totalsRowDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sources" dataDxfId="6" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -525,16 +529,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="96.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
@@ -869,9 +873,21 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="6">
+        <v>44269</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.90625</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.94097222222222221</v>
+      </c>
       <c r="E19" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>3.472222222222221E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1376,7 +1392,7 @@
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="10">
         <f>SUM(Tableau2[Temps])</f>
-        <v>1.1437500000000003</v>
+        <v>1.1784722222222226</v>
       </c>
     </row>
   </sheetData>

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben19\Documents\GitHub\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin.FONTANA\Documents\GitHub\ProjetWeb\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4AF2C9-579C-4F2E-B8C9-324195FF4F81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Descritpion</t>
   </si>
@@ -106,12 +105,15 @@
   </si>
   <si>
     <t>finalisation du check de password et finalisation du sprint 2 commencement du sprint 3 avec du bug fixing</t>
+  </si>
+  <si>
+    <t>Finalitation du formulaire d'inscription ajout des icons socials et ajout de la page de tos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -250,18 +252,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:F101" totalsRowCount="1" headerRowDxfId="12">
-  <autoFilter ref="A1:F100" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:F101" totalsRowCount="1" headerRowDxfId="12">
+  <autoFilter ref="A1:F100"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Descritpion" dataDxfId="11" totalsRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="10" totalsRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Heure de début" dataDxfId="9" totalsRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Heure de fin" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Temps" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="1">
+    <tableColumn id="3" name="Descritpion" dataDxfId="11" totalsRowDxfId="5"/>
+    <tableColumn id="5" name="Date" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="6" name="Heure de début" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="7" name="Heure de fin" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="8" name="Temps" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="1">
       <calculatedColumnFormula>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Tableau2[Temps])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sources" dataDxfId="6" totalsRowDxfId="0"/>
+    <tableColumn id="9" name="Sources" dataDxfId="6" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -529,11 +531,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,9 +893,21 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="6">
+        <v>44270</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.3347222222222222</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.45</v>
+      </c>
       <c r="E20" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>0.11527777777777781</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1392,7 +1406,7 @@
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="10">
         <f>SUM(Tableau2[Temps])</f>
-        <v>1.1784722222222226</v>
+        <v>1.2937500000000004</v>
       </c>
     </row>
   </sheetData>

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Descritpion</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Finalitation du formulaire d'inscription ajout des icons socials et ajout de la page de tos</t>
+  </si>
+  <si>
+    <t>Création de la page about et finition du footer</t>
+  </si>
+  <si>
+    <t>lien de creation de compte et de login puis commencement du checker de nom d'utilisateurs</t>
   </si>
 </sst>
 </file>
@@ -535,7 +541,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,17 +917,39 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
+      <c r="A21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="6">
+        <v>44272</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.51180555555555551</v>
+      </c>
       <c r="E21" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>6.1111111111111061E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
+      <c r="A22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="6">
+        <v>44274</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.51180555555555551</v>
+      </c>
       <c r="E22" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>6.5277777777777712E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1406,7 +1434,7 @@
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="10">
         <f>SUM(Tableau2[Temps])</f>
-        <v>1.2937500000000004</v>
+        <v>1.4201388888888893</v>
       </c>
     </row>
   </sheetData>

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -541,7 +541,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,10 +953,15 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
+      <c r="B23" s="6">
+        <v>44277</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.3347222222222222</v>
+      </c>
       <c r="E23" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>-0.3347222222222222</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1434,7 +1439,7 @@
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="10">
         <f>SUM(Tableau2[Temps])</f>
-        <v>1.4201388888888893</v>
+        <v>1.0854166666666671</v>
       </c>
     </row>
   </sheetData>

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Descritpion</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>lien de creation de compte et de login puis commencement du checker de nom d'utilisateurs</t>
+  </si>
+  <si>
+    <t>Finition du checker de l'email et du nom d'utilisateur en temps réel</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,15 +956,21 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="B23" s="6">
         <v>44277</v>
       </c>
       <c r="C23" s="5">
         <v>0.3347222222222222</v>
       </c>
+      <c r="D23" s="5">
+        <v>0.3979166666666667</v>
+      </c>
       <c r="E23" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>-0.3347222222222222</v>
+        <v>6.3194444444444497E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1439,7 +1448,7 @@
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="10">
         <f>SUM(Tableau2[Temps])</f>
-        <v>1.0854166666666671</v>
+        <v>1.4833333333333338</v>
       </c>
     </row>
   </sheetData>

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -544,7 +544,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,10 +974,15 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
+      <c r="B24" s="6">
+        <v>44277</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.40833333333333338</v>
+      </c>
       <c r="E24" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>-0.40833333333333338</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1448,7 +1453,7 @@
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="10">
         <f>SUM(Tableau2[Temps])</f>
-        <v>1.4833333333333338</v>
+        <v>1.0750000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Descritpion</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Finition du checker de l'email et du nom d'utilisateur en temps réel</t>
+  </si>
+  <si>
+    <t>enjolissement des erreures</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,15 +977,21 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="B24" s="6">
         <v>44277</v>
       </c>
       <c r="C24" s="5">
         <v>0.40833333333333338</v>
       </c>
+      <c r="D24" s="5">
+        <v>0.44444444444444442</v>
+      </c>
       <c r="E24" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>-0.40833333333333338</v>
+        <v>3.6111111111111038E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1453,7 +1462,7 @@
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="10">
         <f>SUM(Tableau2[Temps])</f>
-        <v>1.0750000000000004</v>
+        <v>1.5194444444444448</v>
       </c>
     </row>
   </sheetData>

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="4410" windowHeight="4530"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,10 +995,15 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
+      <c r="B25" s="6">
+        <v>44284</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="E25" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>-0.33333333333333331</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1462,7 +1467,7 @@
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="10">
         <f>SUM(Tableau2[Temps])</f>
-        <v>1.5194444444444448</v>
+        <v>1.1861111111111116</v>
       </c>
     </row>
   </sheetData>

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Descritpion</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>enjolissement des erreures</t>
+  </si>
+  <si>
+    <t>continued the doc and started a new branch for mailer</t>
   </si>
 </sst>
 </file>
@@ -995,15 +998,21 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="B25" s="6">
         <v>44284</v>
       </c>
       <c r="C25" s="5">
         <v>0.33333333333333331</v>
       </c>
+      <c r="D25" s="5">
+        <v>0.44930555555555557</v>
+      </c>
       <c r="E25" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>-0.33333333333333331</v>
+        <v>0.11597222222222225</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1467,7 +1476,7 @@
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="10">
         <f>SUM(Tableau2[Temps])</f>
-        <v>1.1861111111111116</v>
+        <v>1.635416666666667</v>
       </c>
     </row>
   </sheetData>

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Descritpion</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>continued the doc and started a new branch for mailer</t>
+  </si>
+  <si>
+    <t>Continued the mailer</t>
+  </si>
+  <si>
+    <t>Finished the basic mailer</t>
   </si>
 </sst>
 </file>
@@ -550,7 +556,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,17 +1022,39 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
+      <c r="A26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="6">
+        <v>44286</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.51180555555555551</v>
+      </c>
       <c r="E26" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>6.9444444444444364E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
+      <c r="A27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="6">
+        <v>44286</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.53125</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.55138888888888882</v>
+      </c>
       <c r="E27" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>2.0138888888888817E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1476,7 +1504,7 @@
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="10">
         <f>SUM(Tableau2[Temps])</f>
-        <v>1.635416666666667</v>
+        <v>1.7250000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/doc/logBook/logBookBFA.xlsx
+++ b/doc/logBook/logBookBFA.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin.FONTANA\Documents\GitHub\ProjetWeb\Web-Observation\doc\logBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babs2\Documents\GitHub\Web-Observation\doc\logBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF89D827-245A-450E-9441-13CE65BF98F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="4410" windowHeight="4530"/>
+    <workbookView xWindow="4275" yWindow="405" windowWidth="22080" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Descritpion</t>
   </si>
@@ -122,19 +114,22 @@
     <t>enjolissement des erreures</t>
   </si>
   <si>
-    <t>continued the doc and started a new branch for mailer</t>
-  </si>
-  <si>
-    <t>Continued the mailer</t>
-  </si>
-  <si>
-    <t>Finished the basic mailer</t>
+    <t>finition de la page contact us et modification de la fonction de mail</t>
+  </si>
+  <si>
+    <t>avancement du mailer</t>
+  </si>
+  <si>
+    <t>Finition du mailer basique</t>
+  </si>
+  <si>
+    <t>avancement de la doc et commencement d'une nouvelle branche pour le mailer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -273,18 +268,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:F101" totalsRowCount="1" headerRowDxfId="12">
-  <autoFilter ref="A1:F100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:F101" totalsRowCount="1" headerRowDxfId="12">
+  <autoFilter ref="A1:F100" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="3" name="Descritpion" dataDxfId="11" totalsRowDxfId="5"/>
-    <tableColumn id="5" name="Date" dataDxfId="10" totalsRowDxfId="4"/>
-    <tableColumn id="6" name="Heure de début" dataDxfId="9" totalsRowDxfId="3"/>
-    <tableColumn id="7" name="Heure de fin" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="8" name="Temps" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Descritpion" dataDxfId="11" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Heure de début" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Heure de fin" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Temps" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="1">
       <calculatedColumnFormula>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Tableau2[Temps])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="Sources" dataDxfId="6" totalsRowDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sources" dataDxfId="6" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -552,11 +547,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1000,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25" s="6">
         <v>44284</v>
@@ -1058,10 +1053,21 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
+      <c r="A28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="6">
+        <v>44286</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.80902777777777779</v>
+      </c>
       <c r="E28" s="2">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>7.8472222222222165E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1504,7 +1510,7 @@
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="10">
         <f>SUM(Tableau2[Temps])</f>
-        <v>1.7250000000000001</v>
+        <v>1.8034722222222221</v>
       </c>
     </row>
   </sheetData>
